--- a/chart-styles-pubs.xlsx
+++ b/chart-styles-pubs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="38060" windowHeight="25840" tabRatio="913" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="38060" windowHeight="25840" tabRatio="913" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="17" r:id="rId1"/>
@@ -13775,9 +13775,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.0462658875869943"/>
-          <c:y val="0.189120670439891"/>
+          <c:y val="0.212208701185079"/>
           <c:w val="0.931875036817405"/>
-          <c:h val="0.683259452995675"/>
+          <c:h val="0.596679278726523"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -18082,7 +18082,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0">
+            <a:rPr lang="en-US" sz="900" b="1" i="0">
               <a:effectLst/>
               <a:latin typeface="Lato Bold"/>
               <a:ea typeface="+mn-ea"/>
@@ -18091,7 +18091,7 @@
             <a:t>Default risk based only </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+            <a:rPr lang="en-US" sz="900" b="1" i="0" baseline="0">
               <a:effectLst/>
               <a:latin typeface="Lato Bold"/>
               <a:ea typeface="+mn-ea"/>
@@ -18099,7 +18099,7 @@
             </a:rPr>
             <a:t> on borrower characteristics</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="1" i="0">
+          <a:endParaRPr lang="en-US" sz="900" b="1" i="0">
             <a:effectLst/>
             <a:latin typeface="Lato Bold"/>
             <a:cs typeface="Lato Bold"/>
@@ -18137,7 +18137,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
+            <a:rPr lang="en-US" sz="900" b="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -18178,7 +18178,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
+            <a:rPr lang="en-US" sz="900" i="1">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -18190,7 +18190,7 @@
             <a:t>REASONABLE</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" sz="1400" i="1">
+            <a:rPr lang="en-US" sz="900" i="1">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -18201,7 +18201,7 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
+            <a:rPr lang="en-US" sz="900" i="1">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -41324,7 +41324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
@@ -49076,8 +49076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="U87" sqref="U87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
